--- a/Plate_bn_exp_2/original_data/phenotype_entry.xlsx
+++ b/Plate_bn_exp_2/original_data/phenotype_entry.xlsx
@@ -25615,8 +25615,8 @@
   <dimension ref="A1:N290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F290" sqref="F290"/>
+      <pane ySplit="2" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G243" sqref="G243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31213,7 +31213,7 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <f t="shared" ref="H132:H146" si="12">SUM(F132:G132)</f>
+        <f t="shared" ref="H132:H195" si="12">SUM(F132:G132)</f>
         <v>1</v>
       </c>
       <c r="J132" s="13">
@@ -31849,6 +31849,13 @@
       <c r="E147" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G147" s="5">
+        <v>4</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="J147" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -31867,7 +31874,7 @@
       </c>
       <c r="N147" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
@@ -31880,6 +31887,13 @@
       <c r="E148" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G148" s="5">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J148" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -31894,7 +31908,7 @@
       </c>
       <c r="M148" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N148" s="13">
         <f t="shared" si="17"/>
@@ -31911,6 +31925,13 @@
       <c r="E149" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G149" s="5">
+        <v>4</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="J149" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -31929,7 +31950,7 @@
       </c>
       <c r="N149" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
@@ -31942,6 +31963,13 @@
       <c r="E150" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G150" s="5">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J150" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -31956,7 +31984,7 @@
       </c>
       <c r="M150" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N150" s="13">
         <f t="shared" si="17"/>
@@ -31973,6 +32001,13 @@
       <c r="E151" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G151" s="5">
+        <v>4</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
       <c r="J151" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -31991,7 +32026,7 @@
       </c>
       <c r="N151" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
@@ -32004,6 +32039,13 @@
       <c r="E152" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G152" s="5">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J152" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32018,7 +32060,7 @@
       </c>
       <c r="M152" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N152" s="13">
         <f t="shared" si="17"/>
@@ -32035,6 +32077,13 @@
       <c r="E153" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G153" s="5">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J153" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32049,7 +32098,7 @@
       </c>
       <c r="M153" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N153" s="13">
         <f t="shared" si="17"/>
@@ -32066,6 +32115,13 @@
       <c r="E154" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G154" s="5">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J154" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32080,7 +32136,7 @@
       </c>
       <c r="M154" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N154" s="13">
         <f t="shared" si="17"/>
@@ -32097,6 +32153,13 @@
       <c r="E155" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G155" s="5">
+        <v>2</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J155" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32115,7 +32178,7 @@
       </c>
       <c r="N155" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
@@ -32128,6 +32191,13 @@
       <c r="E156" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G156" s="5">
+        <v>2</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J156" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32146,7 +32216,7 @@
       </c>
       <c r="N156" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
@@ -32159,6 +32229,13 @@
       <c r="E157" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G157" s="5">
+        <v>2</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J157" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32177,7 +32254,7 @@
       </c>
       <c r="N157" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
@@ -32190,6 +32267,13 @@
       <c r="E158" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G158" s="5">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J158" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32204,7 +32288,7 @@
       </c>
       <c r="M158" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N158" s="13">
         <f t="shared" si="17"/>
@@ -32221,6 +32305,13 @@
       <c r="E159" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G159" s="5">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J159" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32235,7 +32326,7 @@
       </c>
       <c r="M159" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N159" s="13">
         <f t="shared" si="17"/>
@@ -32252,6 +32343,13 @@
       <c r="E160" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G160" s="5">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J160" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32266,7 +32364,7 @@
       </c>
       <c r="M160" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N160" s="13">
         <f t="shared" si="17"/>
@@ -32283,6 +32381,13 @@
       <c r="E161" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G161" s="5">
+        <v>2</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J161" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32301,7 +32406,7 @@
       </c>
       <c r="N161" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
@@ -32314,6 +32419,13 @@
       <c r="E162" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G162" s="5">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J162" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32328,7 +32440,7 @@
       </c>
       <c r="M162" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N162" s="13">
         <f t="shared" si="17"/>
@@ -32345,6 +32457,13 @@
       <c r="E163" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G163" s="5">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J163" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32359,7 +32478,7 @@
       </c>
       <c r="M163" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N163" s="13">
         <f t="shared" si="17"/>
@@ -32376,6 +32495,13 @@
       <c r="E164" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G164" s="5">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J164" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32390,7 +32516,7 @@
       </c>
       <c r="M164" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N164" s="13">
         <f t="shared" si="17"/>
@@ -32407,6 +32533,13 @@
       <c r="E165" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G165" s="5">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J165" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32421,7 +32554,7 @@
       </c>
       <c r="M165" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N165" s="13">
         <f t="shared" si="17"/>
@@ -32438,6 +32571,13 @@
       <c r="E166" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G166" s="5">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J166" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32452,7 +32592,7 @@
       </c>
       <c r="M166" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N166" s="13">
         <f t="shared" si="17"/>
@@ -32469,6 +32609,13 @@
       <c r="E167" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G167" s="5">
+        <v>2</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J167" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32487,7 +32634,7 @@
       </c>
       <c r="N167" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
@@ -32500,6 +32647,13 @@
       <c r="E168" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G168" s="5">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J168" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32514,7 +32668,7 @@
       </c>
       <c r="M168" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N168" s="13">
         <f t="shared" si="17"/>
@@ -32531,6 +32685,13 @@
       <c r="E169" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G169" s="5">
+        <v>5</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
       <c r="J169" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32549,7 +32710,7 @@
       </c>
       <c r="N169" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
@@ -32562,6 +32723,13 @@
       <c r="E170" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G170" s="5">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J170" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32576,7 +32744,7 @@
       </c>
       <c r="M170" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N170" s="13">
         <f t="shared" si="17"/>
@@ -32593,6 +32761,13 @@
       <c r="E171" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G171" s="5">
+        <v>2</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J171" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32611,7 +32786,7 @@
       </c>
       <c r="N171" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
@@ -32624,6 +32799,13 @@
       <c r="E172" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G172" s="5">
+        <v>2</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J172" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32642,7 +32824,7 @@
       </c>
       <c r="N172" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
@@ -32655,6 +32837,13 @@
       <c r="E173" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G173" s="5">
+        <v>3</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
       <c r="J173" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32673,7 +32862,7 @@
       </c>
       <c r="N173" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
@@ -32686,6 +32875,13 @@
       <c r="E174" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G174" s="5">
+        <v>2</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J174" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32704,7 +32900,7 @@
       </c>
       <c r="N174" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
@@ -32717,6 +32913,13 @@
       <c r="E175" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G175" s="5">
+        <v>2</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J175" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32735,7 +32938,7 @@
       </c>
       <c r="N175" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
@@ -32748,6 +32951,13 @@
       <c r="E176" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G176" s="5">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J176" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32762,7 +32972,7 @@
       </c>
       <c r="M176" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N176" s="13">
         <f t="shared" si="17"/>
@@ -32779,6 +32989,13 @@
       <c r="E177" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G177" s="5">
+        <v>2</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J177" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32797,7 +33014,7 @@
       </c>
       <c r="N177" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
@@ -32810,6 +33027,13 @@
       <c r="E178" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G178" s="5">
+        <v>2</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J178" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32828,7 +33052,7 @@
       </c>
       <c r="N178" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
@@ -32841,6 +33065,13 @@
       <c r="E179" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G179" s="5">
+        <v>3</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
       <c r="J179" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32859,7 +33090,7 @@
       </c>
       <c r="N179" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
@@ -32872,6 +33103,13 @@
       <c r="E180" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G180" s="5">
+        <v>2</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J180" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32890,7 +33128,7 @@
       </c>
       <c r="N180" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
@@ -32903,6 +33141,13 @@
       <c r="E181" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G181" s="5">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J181" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32917,7 +33162,7 @@
       </c>
       <c r="M181" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N181" s="13">
         <f t="shared" si="17"/>
@@ -32934,6 +33179,13 @@
       <c r="E182" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G182" s="5">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J182" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32948,7 +33200,7 @@
       </c>
       <c r="M182" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N182" s="13">
         <f t="shared" si="17"/>
@@ -32965,6 +33217,13 @@
       <c r="E183" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G183" s="5">
+        <v>2</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J183" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -32983,7 +33242,7 @@
       </c>
       <c r="N183" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
@@ -32996,6 +33255,13 @@
       <c r="E184" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G184" s="5">
+        <v>2</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J184" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -33014,7 +33280,7 @@
       </c>
       <c r="N184" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
@@ -33027,6 +33293,13 @@
       <c r="E185" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G185" s="5">
+        <v>2</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J185" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -33045,7 +33318,7 @@
       </c>
       <c r="N185" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
@@ -33058,6 +33331,13 @@
       <c r="E186" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G186" s="5">
+        <v>2</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J186" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -33076,7 +33356,7 @@
       </c>
       <c r="N186" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
@@ -33089,6 +33369,13 @@
       <c r="E187" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G187" s="5">
+        <v>3</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
       <c r="J187" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -33107,7 +33394,7 @@
       </c>
       <c r="N187" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
@@ -33120,6 +33407,13 @@
       <c r="E188" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G188" s="5">
+        <v>2</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J188" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -33138,7 +33432,7 @@
       </c>
       <c r="N188" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
@@ -33151,6 +33445,13 @@
       <c r="E189" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G189" s="5">
+        <v>3</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
       <c r="J189" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -33169,7 +33470,7 @@
       </c>
       <c r="N189" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
@@ -33182,6 +33483,13 @@
       <c r="E190" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G190" s="5">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J190" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -33196,7 +33504,7 @@
       </c>
       <c r="M190" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N190" s="13">
         <f t="shared" si="17"/>
@@ -33213,6 +33521,13 @@
       <c r="E191" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G191" s="5">
+        <v>2</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J191" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -33231,7 +33546,7 @@
       </c>
       <c r="N191" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
@@ -33244,6 +33559,13 @@
       <c r="E192" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G192" s="5">
+        <v>2</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J192" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -33262,7 +33584,7 @@
       </c>
       <c r="N192" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
@@ -33275,6 +33597,13 @@
       <c r="E193" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G193" s="5">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
       <c r="J193" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -33289,7 +33618,7 @@
       </c>
       <c r="M193" s="13">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N193" s="13">
         <f t="shared" si="17"/>
@@ -33306,6 +33635,13 @@
       <c r="E194" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G194" s="5">
+        <v>2</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J194" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -33324,7 +33660,7 @@
       </c>
       <c r="N194" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
@@ -33337,6 +33673,13 @@
       <c r="E195" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G195" s="5">
+        <v>2</v>
+      </c>
+      <c r="H195">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
       <c r="J195" s="13">
         <f t="shared" si="13"/>
         <v>1</v>
@@ -33355,7 +33698,7 @@
       </c>
       <c r="N195" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
@@ -33368,25 +33711,32 @@
       <c r="E196" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G196" s="5">
+        <v>2</v>
+      </c>
+      <c r="H196">
+        <f t="shared" ref="H196:H259" si="18">SUM(F196:G196)</f>
+        <v>2</v>
+      </c>
       <c r="J196" s="13">
-        <f t="shared" ref="J196:J259" si="18">IF(AND(D196="r", E196="s"), 1,0)</f>
+        <f t="shared" ref="J196:J259" si="19">IF(AND(D196="r", E196="s"), 1,0)</f>
         <v>1</v>
       </c>
       <c r="K196" s="13">
-        <f t="shared" ref="K196:K259" si="19">IF(AND(D196="s", E196="s"), 1,0)</f>
+        <f t="shared" ref="K196:K259" si="20">IF(AND(D196="s", E196="s"), 1,0)</f>
         <v>0</v>
       </c>
       <c r="L196" s="13">
-        <f t="shared" ref="L196:L259" si="20">IF(AND(D196="r", E196="r"), 1,0)</f>
+        <f t="shared" ref="L196:L259" si="21">IF(AND(D196="r", E196="r"), 1,0)</f>
         <v>0</v>
       </c>
       <c r="M196" s="13">
-        <f t="shared" ref="M196:M259" si="21">IF(H196=1,1,0)</f>
+        <f t="shared" ref="M196:M259" si="22">IF(H196=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="N196" s="13">
-        <f t="shared" ref="N196:N259" si="22">IF(H196&gt;1, 1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="N196:N259" si="23">IF(H196&gt;1, 1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
@@ -33399,24 +33749,31 @@
       <c r="E197" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G197" s="5">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
       <c r="J197" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K197" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L197" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M197" s="13">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="N197" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -33430,25 +33787,32 @@
       <c r="E198" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G198" s="5">
+        <v>2</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J198" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K198" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L198" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M198" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N198" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
@@ -33461,25 +33825,32 @@
       <c r="E199" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G199" s="5">
+        <v>2</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J199" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K199" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L199" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M199" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N199" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
@@ -33492,25 +33863,32 @@
       <c r="E200" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G200" s="5">
+        <v>2</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J200" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K200" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L200" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M200" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N200" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
@@ -33523,25 +33901,32 @@
       <c r="E201" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G201" s="5">
+        <v>2</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J201" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K201" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L201" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M201" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N201" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
@@ -33554,25 +33939,32 @@
       <c r="E202" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G202" s="5">
+        <v>2</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J202" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K202" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L202" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M202" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N202" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
@@ -33585,25 +33977,32 @@
       <c r="E203" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G203" s="5">
+        <v>5</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
       <c r="J203" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K203" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L203" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M203" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N203" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
@@ -33616,25 +34015,32 @@
       <c r="E204" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G204" s="5">
+        <v>2</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J204" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K204" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L204" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M204" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N204" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
@@ -33647,25 +34053,32 @@
       <c r="E205" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G205" s="5">
+        <v>2</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J205" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K205" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L205" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M205" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N205" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
@@ -33678,25 +34091,32 @@
       <c r="E206" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G206" s="5">
+        <v>2</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J206" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K206" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L206" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M206" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N206" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
@@ -33709,24 +34129,31 @@
       <c r="E207" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G207" s="5">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
       <c r="J207" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K207" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L207" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M207" s="13">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="N207" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -33740,24 +34167,31 @@
       <c r="E208" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G208" s="5">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
       <c r="J208" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K208" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L208" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M208" s="13">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="N208" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -33771,25 +34205,32 @@
       <c r="E209" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G209" s="5">
+        <v>6</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
       <c r="J209" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K209" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L209" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M209" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N209" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
@@ -33802,24 +34243,31 @@
       <c r="E210" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G210" s="5">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J210" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K210" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L210" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M210" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N210" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -33833,24 +34281,31 @@
       <c r="E211" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G211" s="5">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
       <c r="J211" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K211" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L211" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M211" s="13">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="N211" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -33864,24 +34319,31 @@
       <c r="E212" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G212" s="5">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
       <c r="J212" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K212" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L212" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M212" s="13">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="N212" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -33895,25 +34357,32 @@
       <c r="E213" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G213">
+        <v>6</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
       <c r="J213" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K213" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L213" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M213" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N213" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
@@ -33926,25 +34395,32 @@
       <c r="E214" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G214">
+        <v>3</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
       <c r="J214" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K214" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L214" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M214" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N214" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
@@ -33957,25 +34433,32 @@
       <c r="E215" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G215">
+        <v>4</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
       <c r="J215" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K215" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L215" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M215" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N215" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
@@ -33988,24 +34471,31 @@
       <c r="E216" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
       <c r="J216" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K216" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L216" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M216" s="13">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="N216" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -34019,24 +34509,31 @@
       <c r="E217" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J217" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K217" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L217" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M217" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N217" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -34050,25 +34547,32 @@
       <c r="E218" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G218">
+        <v>3</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
       <c r="J218" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K218" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L218" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M218" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N218" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
@@ -34081,25 +34585,32 @@
       <c r="E219" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G219">
+        <v>2</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J219" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K219" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L219" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M219" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N219" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
@@ -34112,25 +34623,32 @@
       <c r="E220" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G220">
+        <v>2</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J220" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K220" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L220" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M220" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N220" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
@@ -34143,25 +34661,32 @@
       <c r="E221" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G221">
+        <v>2</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J221" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K221" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L221" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M221" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N221" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
@@ -34174,25 +34699,32 @@
       <c r="E222" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G222">
+        <v>3</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
       <c r="J222" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K222" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L222" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M222" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N222" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
@@ -34205,24 +34737,31 @@
       <c r="E223" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
       <c r="J223" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K223" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L223" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M223" s="13">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="N223" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -34236,25 +34775,32 @@
       <c r="E224" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G224">
+        <v>2</v>
+      </c>
+      <c r="H224">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J224" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K224" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L224" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M224" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N224" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
@@ -34267,25 +34813,32 @@
       <c r="E225" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G225">
+        <v>2</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J225" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K225" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L225" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M225" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N225" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
@@ -34298,25 +34851,32 @@
       <c r="E226" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G226">
+        <v>2</v>
+      </c>
+      <c r="H226">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J226" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K226" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L226" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M226" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N226" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
@@ -34329,24 +34889,31 @@
       <c r="E227" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
       <c r="J227" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K227" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L227" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M227" s="13">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="N227" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -34360,25 +34927,32 @@
       <c r="E228" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G228">
+        <v>4</v>
+      </c>
+      <c r="H228">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
       <c r="J228" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K228" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L228" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M228" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N228" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
@@ -34391,24 +34965,31 @@
       <c r="E229" s="27" t="s">
         <v>158</v>
       </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J229" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K229" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L229" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="M229" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N229" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -34422,25 +35003,32 @@
       <c r="E230" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G230">
+        <v>5</v>
+      </c>
+      <c r="H230">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
       <c r="J230" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K230" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L230" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M230" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N230" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
@@ -34453,25 +35041,32 @@
       <c r="E231" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G231">
+        <v>5</v>
+      </c>
+      <c r="H231">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
       <c r="J231" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K231" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L231" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M231" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N231" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
@@ -34484,25 +35079,32 @@
       <c r="E232" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G232">
+        <v>2</v>
+      </c>
+      <c r="H232">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J232" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K232" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L232" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M232" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N232" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
@@ -34515,25 +35117,32 @@
       <c r="E233" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G233">
+        <v>2</v>
+      </c>
+      <c r="H233">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J233" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K233" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L233" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M233" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N233" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
@@ -34546,24 +35155,31 @@
       <c r="E234" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
       <c r="J234" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K234" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L234" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M234" s="13">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="N234" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -34577,24 +35193,31 @@
       <c r="E235" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
       <c r="J235" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K235" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L235" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M235" s="13">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="N235" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -34608,25 +35231,32 @@
       <c r="E236" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G236">
+        <v>2</v>
+      </c>
+      <c r="H236">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J236" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K236" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L236" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M236" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N236" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
@@ -34639,25 +35269,32 @@
       <c r="E237" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G237">
+        <v>3</v>
+      </c>
+      <c r="H237">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
       <c r="J237" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K237" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L237" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M237" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N237" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
@@ -34670,25 +35307,32 @@
       <c r="E238" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G238">
+        <v>2</v>
+      </c>
+      <c r="H238">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J238" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K238" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L238" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M238" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N238" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
@@ -34701,25 +35345,32 @@
       <c r="E239" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G239">
+        <v>2</v>
+      </c>
+      <c r="H239">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J239" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K239" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L239" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M239" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N239" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
@@ -34732,25 +35383,32 @@
       <c r="E240" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G240">
+        <v>2</v>
+      </c>
+      <c r="H240">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J240" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K240" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L240" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M240" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N240" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
@@ -34763,25 +35421,32 @@
       <c r="E241" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G241">
+        <v>2</v>
+      </c>
+      <c r="H241">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J241" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K241" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L241" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M241" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N241" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
@@ -34794,25 +35459,32 @@
       <c r="E242" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="G242">
+        <v>2</v>
+      </c>
+      <c r="H242">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
       <c r="J242" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K242" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L242" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M242" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N242" s="13">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
@@ -34825,24 +35497,28 @@
       <c r="E243" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H243">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J243" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K243" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L243" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M243" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N243" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -34856,24 +35532,28 @@
       <c r="E244" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H244">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J244" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K244" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L244" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M244" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N244" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -34887,24 +35567,28 @@
       <c r="E245" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H245">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J245" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K245" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L245" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M245" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N245" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -34918,24 +35602,28 @@
       <c r="E246" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H246">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J246" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K246" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L246" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M246" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N246" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -34949,24 +35637,28 @@
       <c r="E247" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H247">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J247" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K247" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L247" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M247" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N247" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -34980,24 +35672,28 @@
       <c r="E248" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H248">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J248" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K248" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L248" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M248" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N248" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -35011,24 +35707,28 @@
       <c r="E249" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H249">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J249" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K249" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L249" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M249" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N249" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -35042,24 +35742,28 @@
       <c r="E250" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H250">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J250" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K250" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L250" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M250" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N250" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -35073,24 +35777,28 @@
       <c r="E251" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H251">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J251" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K251" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L251" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M251" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N251" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -35104,16 +35812,20 @@
       <c r="E252" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H252">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J252" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K252" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L252" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M252" s="13">
@@ -35121,7 +35833,7 @@
         <v>0</v>
       </c>
       <c r="N252" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -35135,24 +35847,28 @@
       <c r="E253" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H253">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J253" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K253" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L253" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M253" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N253" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -35166,24 +35882,28 @@
       <c r="E254" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H254">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J254" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K254" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L254" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M254" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N254" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -35197,24 +35917,28 @@
       <c r="E255" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H255">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J255" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K255" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L255" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M255" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N255" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -35228,24 +35952,28 @@
       <c r="E256" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H256">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J256" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K256" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L256" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M256" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N256" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -35259,24 +35987,28 @@
       <c r="E257" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H257">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J257" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K257" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L257" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M257" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N257" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -35290,24 +36022,28 @@
       <c r="E258" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H258">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J258" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K258" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L258" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M258" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N258" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -35321,24 +36057,28 @@
       <c r="E259" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H259">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="J259" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K259" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L259" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M259" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N259" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -35352,24 +36092,28 @@
       <c r="E260" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H260">
+        <f t="shared" ref="H260:H290" si="24">SUM(F260:G260)</f>
+        <v>0</v>
+      </c>
       <c r="J260" s="13">
-        <f t="shared" ref="J260:J290" si="23">IF(AND(D260="r", E260="s"), 1,0)</f>
+        <f t="shared" ref="J260:J290" si="25">IF(AND(D260="r", E260="s"), 1,0)</f>
         <v>1</v>
       </c>
       <c r="K260" s="13">
-        <f t="shared" ref="K260:K290" si="24">IF(AND(D260="s", E260="s"), 1,0)</f>
+        <f t="shared" ref="K260:K290" si="26">IF(AND(D260="s", E260="s"), 1,0)</f>
         <v>0</v>
       </c>
       <c r="L260" s="13">
-        <f t="shared" ref="L260:L290" si="25">IF(AND(D260="r", E260="r"), 1,0)</f>
+        <f t="shared" ref="L260:L290" si="27">IF(AND(D260="r", E260="r"), 1,0)</f>
         <v>0</v>
       </c>
       <c r="M260" s="13">
-        <f t="shared" ref="M260:M290" si="26">IF(H260=1,1,0)</f>
+        <f t="shared" ref="M260:M290" si="28">IF(H260=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="N260" s="13">
-        <f t="shared" ref="N260:N290" si="27">IF(H260&gt;1, 1,0)</f>
+        <f t="shared" ref="N260:N290" si="29">IF(H260&gt;1, 1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -35383,24 +36127,28 @@
       <c r="E261" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H261">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J261" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K261" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L261" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M261" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N261" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35414,24 +36162,28 @@
       <c r="E262" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H262">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J262" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K262" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L262" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M262" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N262" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35445,24 +36197,28 @@
       <c r="E263" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H263">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J263" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K263" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L263" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M263" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N263" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35476,24 +36232,28 @@
       <c r="E264" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H264">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J264" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K264" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L264" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M264" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N264" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35507,24 +36267,28 @@
       <c r="E265" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H265">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J265" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K265" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L265" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M265" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N265" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35538,24 +36302,28 @@
       <c r="E266" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H266">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J266" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K266" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="L266" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M266" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N266" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35569,24 +36337,28 @@
       <c r="E267" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H267">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J267" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K267" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L267" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M267" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N267" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35600,24 +36372,28 @@
       <c r="E268" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H268">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J268" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K268" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L268" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M268" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N268" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35631,24 +36407,28 @@
       <c r="E269" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H269">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J269" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K269" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L269" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M269" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N269" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35662,24 +36442,28 @@
       <c r="E270" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H270">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J270" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K270" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L270" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M270" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N270" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35693,24 +36477,28 @@
       <c r="E271" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H271">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J271" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K271" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L271" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M271" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N271" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35724,24 +36512,28 @@
       <c r="E272" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H272">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J272" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K272" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L272" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M272" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N272" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35755,24 +36547,28 @@
       <c r="E273" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H273">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J273" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K273" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L273" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M273" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N273" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35786,24 +36582,28 @@
       <c r="E274" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H274">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J274" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K274" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L274" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M274" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N274" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35817,24 +36617,28 @@
       <c r="E275" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H275">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J275" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K275" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L275" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M275" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N275" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35848,24 +36652,28 @@
       <c r="E276" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H276">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J276" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K276" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L276" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M276" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N276" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35879,24 +36687,28 @@
       <c r="E277" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H277">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J277" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K277" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L277" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M277" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N277" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35910,24 +36722,28 @@
       <c r="E278" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H278">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J278" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K278" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L278" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M278" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N278" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35941,24 +36757,28 @@
       <c r="E279" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H279">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J279" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K279" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L279" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M279" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N279" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -35972,24 +36792,28 @@
       <c r="E280" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H280">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J280" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K280" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L280" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M280" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N280" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -36003,24 +36827,28 @@
       <c r="E281" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H281">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J281" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K281" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L281" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M281" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N281" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -36034,24 +36862,28 @@
       <c r="E282" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H282">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J282" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K282" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L282" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M282" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N282" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -36065,24 +36897,28 @@
       <c r="E283" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H283">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J283" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K283" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L283" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M283" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N283" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -36096,24 +36932,28 @@
       <c r="E284" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H284">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J284" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K284" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L284" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M284" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N284" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -36127,24 +36967,28 @@
       <c r="E285" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H285">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J285" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K285" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L285" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M285" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N285" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -36158,24 +37002,28 @@
       <c r="E286" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H286">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J286" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K286" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L286" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M286" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N286" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -36189,24 +37037,28 @@
       <c r="E287" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H287">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J287" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K287" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L287" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M287" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N287" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -36220,24 +37072,28 @@
       <c r="E288" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H288">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J288" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="K288" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L288" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M288" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N288" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -36251,24 +37107,28 @@
       <c r="E289" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H289">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J289" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K289" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="L289" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M289" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N289" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -36282,24 +37142,28 @@
       <c r="E290" s="27" t="s">
         <v>159</v>
       </c>
+      <c r="H290">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="J290" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K290" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="L290" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M290" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N290" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
